--- a/biology/Zoologie/Austrochernes_dewae/Austrochernes_dewae.xlsx
+++ b/biology/Zoologie/Austrochernes_dewae/Austrochernes_dewae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochernes dewae est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud, au Queensland et en Australie-Occidentale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud, au Queensland et en Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3 mm[2].
-Les mâles mesurent de 2,34 à 2,81 mm et les femelles de 2,51 à 3,05 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3 mm.
+Les mâles mesurent de 2,34 à 2,81 mm et les femelles de 2,51 à 3,05 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sundochernes dewae par Beier en 1967. Elle a été placée dans le genre Troglochernes par Harvey et Volschenk en 2007[3] puis dans le genre Austrochernes par Harvey en 2018[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sundochernes dewae par Beier en 1967. Elle a été placée dans le genre Troglochernes par Harvey et Volschenk en 2007 puis dans le genre Austrochernes par Harvey en 2018.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Barbara Dew[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Barbara Dew.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beier, 1967 : Some Pseudoscorpionidea from Australia, chiefly from caves. Australian Zoologist, vol. 14, p. 199-205 (texte intégral).</t>
         </is>
